--- a/FigTblMap/Tbl_YG_policy.xlsx
+++ b/FigTblMap/Tbl_YG_policy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Yield gap</t>
   </si>
@@ -134,10 +134,13 @@
     <t>Policy solutions</t>
   </si>
   <si>
-    <t>Allocative efficiency yield gap</t>
-  </si>
-  <si>
     <t>Economic yield gap</t>
+  </si>
+  <si>
+    <t>CHECK KELLY 2003, according to this paper subsidies should be in teh ALLOCATIVE EFFICIENCY YIELD GAP!!!! Only use subsidies in case of economic profitability!</t>
+  </si>
+  <si>
+    <t>Allocative yield gap</t>
   </si>
 </sst>
 </file>
@@ -288,7 +291,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,6 +469,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -629,13 +638,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -981,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1031,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1036,6 +1048,9 @@
         <v>9</v>
       </c>
       <c r="F2" s="1"/>
+      <c r="G2" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1062,7 +1077,7 @@
     </row>
     <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -1085,7 +1100,7 @@
     </row>
     <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
